--- a/biology/Zoologie/Himeji_Central_Park/Himeji_Central_Park.xlsx
+++ b/biology/Zoologie/Himeji_Central_Park/Himeji_Central_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Himeji Central Park (姫路セントラルパーク, Himeji Sentoraru Pāku?) est un parc safari situé à Himeji, dans la préfecture de Hyōgo, au Japon. Le parc, ouvert depuis mars 1984 est le seul parc safari de la région du Kansai.
@@ -513,7 +525,9 @@
           <t>Parc Safari</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc safari est divisé en plusieurs zones et section permettant de découvrir les animaux en liberté.
 La première zone, elle-même divisée en sections se parcours en voiture. On peut y découvrir une section dédiée aux guépards, une autre au lions, aux tigres, puis aux herbivores comprenant des girafes de Somalie, des sitatungas, des tahrs de l'Himalaya, des moutons bleus, des hippopotames, des Bison d'Amérique du Nord, des zèbres et enfin une grande section dédiée aux rhinocéros blanc et aux éléphants de savane d'Afrique.
@@ -548,10 +562,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Montagnes russes
+          <t>Montagnes russes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Diavlo
-Autres
-Free Fall - Tour de chute
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Himeji_Central_Park</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Himeji_Central_Park</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le parc d'attractions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Free Fall - Tour de chute
 Giant Peter - Grande roue
 Diablo
 Buster Bomb
